--- a/data/trans_dic/P3A$otraSIcobraNOhogar-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P3A$otraSIcobraNOhogar-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +580,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,04; 4,22</t>
+          <t>1,01; 4,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,17; 5,52</t>
+          <t>2,22; 5,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,84; 4,04</t>
+          <t>1,91; 4,2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +630,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,2</t>
+          <t>0,34; 2,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,11; 2,81</t>
+          <t>1,03; 2,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,83; 2,15</t>
+          <t>0,85; 2,03</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,3; 3,93</t>
+          <t>1,24; 3,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,82; 6,4</t>
+          <t>2,78; 6,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,35; 4,58</t>
+          <t>2,27; 4,51</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,56; 7,17</t>
+          <t>1,41; 7,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,07; 3,09</t>
+          <t>1,13; 3,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,55; 3,96</t>
+          <t>1,62; 4,0</t>
         </is>
       </c>
     </row>
@@ -779,24 +780,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,66; 4,04</t>
+          <t>0,69; 3,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,2; 4,07</t>
+          <t>1,13; 4,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,35; 3,39</t>
+          <t>1,35; 3,49</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,24 +830,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,93; 5,43</t>
+          <t>1,9; 5,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,38; 6,72</t>
+          <t>3,41; 6,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,89; 5,23</t>
+          <t>2,9; 5,26</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,16; 3,29</t>
+          <t>1,15; 3,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,18</t>
+          <t>0,52; 2,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,32</t>
+          <t>0,95; 2,32</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,12; 0,92</t>
+          <t>0,12; 0,93</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,08</t>
+          <t>0,77; 2,06</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,41; 1,22</t>
+          <t>0,43; 1,22</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,23; 2,17</t>
+          <t>1,26; 2,18</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,79; 2,6</t>
+          <t>1,81; 2,64</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,63; 2,27</t>
+          <t>1,66; 2,3</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares en los que al menos, otra persona que no reside en el hogar y cobra por ello (no de los ingresos del hogar), se ocupa principalmente de las tareas domésticas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>6608</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>10272</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>16880</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3151; 12629</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6439; 15688</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>11482; 25247</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>4833</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>9303</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>14136</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1759; 11222</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>5315; 14288</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>8830; 21021</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>7467</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>14534</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>22001</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3911; 12494</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9668; 21925</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>15076; 29931</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>10159</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>9613</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>19772</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>4394; 23617</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>5377; 15017</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>12755; 31567</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>3295</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>6494</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>9789</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1233; 6977</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2929; 10602</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>5920; 15270</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>8581</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>12100</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>20681</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>5128; 13630</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>8773; 16840</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>15254; 27713</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>12720</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>11119</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>23839</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>7166; 20781</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>4390; 17580</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>13962; 34148</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>3845</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>9076</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>12921</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>1100; 8646</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>5507; 14787</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>7096; 20068</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>57508</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>82512</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>140020</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>43611; 75307</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>67168; 97876</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>119339; 164653</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>